--- a/Results/attack success mechanism/unrestricted/prop_analysis.xlsx
+++ b/Results/attack success mechanism/unrestricted/prop_analysis.xlsx
@@ -871,7 +871,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
